--- a/food_excel.xlsx
+++ b/food_excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>name</t>
   </si>
@@ -28,11 +28,11 @@
         <color indexed="8"/>
         <rFont val="ＭＳ Ｐゴシック"/>
       </rPr>
-      <t>アマランサス　玄穀</t>
+      <t>食パン　（超熟など）</t>
     </r>
   </si>
   <si>
-    <t>other</t>
+    <t>Other</t>
   </si>
   <si>
     <t xml:space="preserve"> g</t>
@@ -44,7 +44,7 @@
         <color indexed="8"/>
         <rFont val="ＭＳ Ｐゴシック"/>
       </rPr>
-      <t>あわ　精白粒</t>
+      <t>精白米</t>
     </r>
   </si>
   <si>
@@ -54,8 +54,11 @@
         <color indexed="8"/>
         <rFont val="ＭＳ Ｐゴシック"/>
       </rPr>
-      <t>あわ　あわもち</t>
+      <t>じゃがいも　皮なし　生</t>
     </r>
+  </si>
+  <si>
+    <t>vegetable</t>
   </si>
   <si>
     <r>
@@ -64,7 +67,145 @@
         <color indexed="8"/>
         <rFont val="ＭＳ Ｐゴシック"/>
       </rPr>
-      <t>えんばく　オートミール</t>
+      <t>にんじん　皮なし　生</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+      </rPr>
+      <t>いちご　生</t>
+    </r>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+      </rPr>
+      <t>温州みかん　果肉（砂じょう）普通　生</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+      </rPr>
+      <t>うなぎ　かば焼</t>
+    </r>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+      </rPr>
+      <t>鮎（あゆ）　天然　焼き</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+      </rPr>
+      <t>牛　タン　焼き</t>
+    </r>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+      </rPr>
+      <t>輸入牛肉　サーロイン　皮下脂肪なし　生</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+      </rPr>
+      <t>ごま油</t>
+    </r>
+  </si>
+  <si>
+    <t>seasoning</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+      </rPr>
+      <t>オリーブ油</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+      </rPr>
+      <t>きび団子</t>
+    </r>
+  </si>
+  <si>
+    <t>sweet</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+      </rPr>
+      <t>生八つ橋　あん入り　こしあん入り</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+      </rPr>
+      <t>いかフライ</t>
+    </r>
+  </si>
+  <si>
+    <t>deli</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+      </rPr>
+      <t>カニクリームコロッケ</t>
     </r>
   </si>
 </sst>
@@ -75,7 +216,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -87,11 +228,17 @@
       <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W6"/>
@@ -99,7 +246,7 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Times New Roman"/>
+      <name val="ＭＳ Ｐゴシック"/>
     </font>
   </fonts>
   <fills count="4">
@@ -122,102 +269,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -265,44 +322,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -322,10 +484,11 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -342,10 +505,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -522,11 +685,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -535,26 +701,26 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -800,12 +966,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1086,7 +1252,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1354,21 +1520,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="44.7109" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.2812" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6016" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="19.6016" style="1" customWidth="1"/>
+    <col min="1" max="9" width="19.6016" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="19.6016" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22" customHeight="1">
+    <row r="1" ht="15" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1378,50 +1540,284 @@
       <c r="C1" t="s" s="4">
         <v>2</v>
       </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
     </row>
-    <row r="2" ht="18.65" customHeight="1">
-      <c r="A2" t="s" s="5">
+    <row r="2" ht="31.45" customHeight="1">
+      <c r="A2" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" t="s" s="8">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="7">
+      <c r="C2" t="s" s="9">
         <v>5</v>
       </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
     </row>
-    <row r="3" ht="18.3" customHeight="1">
-      <c r="A3" t="s" s="8">
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="9">
+      <c r="B3" t="s" s="8">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="10">
+      <c r="C3" t="s" s="9">
         <v>5</v>
       </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
     </row>
-    <row r="4" ht="18.3" customHeight="1">
-      <c r="A4" t="s" s="8">
+    <row r="4" ht="31.45" customHeight="1">
+      <c r="A4" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s" s="10">
+      <c r="B4" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="9">
         <v>5</v>
       </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
     </row>
-    <row r="5" ht="18.3" customHeight="1">
-      <c r="A5" t="s" s="8">
+    <row r="5" ht="31.45" customHeight="1">
+      <c r="A5" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="8">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="9">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s" s="10">
+      <c r="C5" t="s" s="9">
         <v>5</v>
       </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s" s="9">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" ht="48.45" customHeight="1">
+      <c r="A7" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s" s="9">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s" s="9">
+        <v>5</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" ht="31.45" customHeight="1">
+      <c r="A9" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s" s="9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s" s="9">
+        <v>5</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" ht="48.45" customHeight="1">
+      <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s" s="9">
+        <v>5</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s" s="9">
+        <v>5</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s" s="9">
+        <v>5</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s" s="9">
+        <v>5</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" ht="31.45" customHeight="1">
+      <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s" s="9">
+        <v>5</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s" s="9">
+        <v>5</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" ht="31.45" customHeight="1">
+      <c r="A17" t="s" s="13">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s" s="9">
+        <v>5</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/food_excel.xlsx
+++ b/food_excel.xlsx
@@ -269,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -322,100 +322,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -431,40 +344,13 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -488,7 +374,6 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1520,14 +1405,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="9" width="19.6016" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="19.6016" style="1" customWidth="1"/>
+    <col min="1" max="3" width="19.6016" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="19.6016" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -1540,284 +1425,182 @@
       <c r="C1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
     </row>
     <row r="2" ht="31.45" customHeight="1">
       <c r="A2" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="8">
+      <c r="B2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="9">
+      <c r="C2" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="9">
+      <c r="C3" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
     </row>
     <row r="4" ht="31.45" customHeight="1">
       <c r="A4" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="B4" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="9">
+      <c r="C4" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
     </row>
     <row r="5" ht="31.45" customHeight="1">
       <c r="A5" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B5" t="s" s="8">
+      <c r="B5" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="C5" t="s" s="9">
+      <c r="C5" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B6" t="s" s="8">
+      <c r="B6" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="C6" t="s" s="9">
+      <c r="C6" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
     </row>
     <row r="7" ht="48.45" customHeight="1">
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="8">
+      <c r="B7" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="C7" t="s" s="9">
+      <c r="C7" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="B8" t="s" s="8">
+      <c r="B8" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="C8" t="s" s="9">
+      <c r="C8" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
     </row>
     <row r="9" ht="31.45" customHeight="1">
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" t="s" s="8">
+      <c r="B9" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="C9" t="s" s="9">
+      <c r="C9" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12"/>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B10" t="s" s="8">
+      <c r="B10" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C10" t="s" s="9">
+      <c r="C10" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
     </row>
     <row r="11" ht="48.45" customHeight="1">
       <c r="A11" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="B11" t="s" s="8">
+      <c r="B11" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="9">
+      <c r="C11" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12"/>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B12" t="s" s="8">
+      <c r="B12" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="C12" t="s" s="9">
+      <c r="C12" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12"/>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B13" t="s" s="8">
+      <c r="B13" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="C13" t="s" s="9">
+      <c r="C13" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B14" t="s" s="8">
+      <c r="B14" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="C14" t="s" s="9">
+      <c r="C14" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
     </row>
     <row r="15" ht="31.45" customHeight="1">
       <c r="A15" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B15" t="s" s="8">
+      <c r="B15" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="C15" t="s" s="9">
+      <c r="C15" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
     </row>
     <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="s" s="13">
+      <c r="A16" t="s" s="7">
         <v>25</v>
       </c>
-      <c r="B16" t="s" s="8">
+      <c r="B16" t="s" s="5">
         <v>26</v>
       </c>
-      <c r="C16" t="s" s="9">
+      <c r="C16" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
     </row>
     <row r="17" ht="31.45" customHeight="1">
-      <c r="A17" t="s" s="13">
+      <c r="A17" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="B17" t="s" s="8">
+      <c r="B17" t="s" s="5">
         <v>26</v>
       </c>
-      <c r="C17" t="s" s="9">
+      <c r="C17" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
